--- a/trunk/social-analytics/social-analytics-nlp/doc/Japanese_codes.xlsx
+++ b/trunk/social-analytics/social-analytics-nlp/doc/Japanese_codes.xlsx
@@ -219,11 +219,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조동사는 무시해도 무방, 조동사 앞에 명사가 올수 있는지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조동사는 무시해도 무방, 단, 조동사 앞에 오는 동사 또는 명사는 서술어로 취급하면 됨.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +266,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,11 +296,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,7 +613,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -632,7 +650,7 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -661,10 +679,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -696,7 +714,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
@@ -740,7 +758,7 @@
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C12" t="s">
@@ -751,7 +769,7 @@
       <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="s">
@@ -761,6 +779,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
